--- a/data/example.xlsx
+++ b/data/example.xlsx
@@ -327,16 +327,16 @@
     <t xml:space="preserve">Tokens</t>
   </si>
   <si>
-    <t xml:space="preserve">This Is Contemporary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You! Yes, You!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StART-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Festival Zero</t>
+    <t xml:space="preserve">TIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YYY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FZ</t>
   </si>
   <si>
     <t xml:space="preserve">Challenges</t>
@@ -1620,15 +1620,15 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C47" activeCellId="0" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2296,7 +2296,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="M18" activeCellId="0" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
